--- a/biology/Zoologie/Heteropoda_javana/Heteropoda_javana.xlsx
+++ b/biology/Zoologie/Heteropoda_javana/Heteropoda_javana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteropoda javana est une espèce d'araignées aranéomorphes de la famille des Sparassidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Malaisie et en Indonésie dans les forêts tropicales.
 </t>
@@ -542,10 +556,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Heteropoda javana (Simon, 1880)[1].
-Cette espèce a été initialement décrite sous le protonyme Panaretus javanus[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Heteropoda javana (Simon, 1880).
+Cette espèce a été initialement décrite sous le protonyme Panaretus javanus.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, javana, fait référence à l'île de Java où cette espèce a été découverte[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, javana, fait référence à l'île de Java où cette espèce a été découverte. 
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>E. Simon, « Révision de la famille des Sparassidae [Arachnides] », Actes de la Société linnéenne de Bordeaux, Bordeaux, vol. 34,‎ 1880, p. 223-351 (ISSN 0365-6934, lire en ligne, consulté le 6 octobre 2023).</t>
         </is>
